--- a/dtpu_configurations/only_integer8/120mhz/mxu_4x4/timing.xlsx
+++ b/dtpu_configurations/only_integer8/120mhz/mxu_4x4/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.067481130361557</v>
+        <v>0.15610268712043762</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.018600232899188995</v>
+        <v>0.02648925594985485</v>
       </c>
     </row>
   </sheetData>
